--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_0_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_0_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003326669641325886</v>
+        <v>0.001300756447688678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001143964638713908</v>
+        <v>0.004413277499858736</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.034092414017429</v>
+        <v>4.47052274004391</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.12714053981341, 7.941044288221449]</t>
+          <t>[1.4611416100562193, 7.479903870031602]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0007384890027275492</v>
+        <v>0.003713199346918161</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0007384890027275492</v>
+        <v>0.003713199346918161</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.4528951649650037, -1.0440528138056169]</t>
+          <t>[-1.8113687372049263, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.627400700421333e-06</v>
+        <v>0.002880827789364382</v>
       </c>
       <c r="R2" t="n">
-        <v>3.254801400842666e-06</v>
+        <v>0.002880827789364382</v>
       </c>
       <c r="S2" t="n">
-        <v>13.46085479270955</v>
+        <v>13.68725948248285</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.740935581415252, 15.180774004003856]</t>
+          <t>[11.994772481895358, 15.379746483070344]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.118358358358513</v>
+        <v>4.526786786786896</v>
       </c>
       <c r="X2" t="n">
-        <v>4.250530530530622</v>
+        <v>1.560960960960998</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.986186186186405</v>
+        <v>7.492612612612795</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.796497182417813e-05</v>
+        <v>0.0002286941940167209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005299636741318739</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.002572995977249508</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04174847316225927</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.488200925875488</v>
+        <v>5.419939239656232</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.899002699740974, 10.077399152010003]</t>
+          <t>[2.1098310164758125, 8.730047462836652]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0004373193781619378</v>
+        <v>0.001416241640530336</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0007384890027275492</v>
+        <v>0.002832483281060671</v>
       </c>
       <c r="O3" t="n">
-        <v>1.213868632918579</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5975001042863459, 1.8302371615508113]</t>
+          <t>[1.2893423303021159, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001316432100750831</v>
+        <v>1.359924040045257e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001316432100750831</v>
+        <v>2.719848080090514e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86151379270604</v>
+        <v>13.52266845877242</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.904110099232012, 15.818917486180071]</t>
+          <t>[11.708976403655761, 15.336360513889087]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.19393393393416</v>
+        <v>16.50750750750771</v>
       </c>
       <c r="X3" t="n">
-        <v>16.86018018018038</v>
+        <v>14.01941941941959</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.52768768768795</v>
+        <v>18.99559559559584</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_0_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_0_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001300756447688678</v>
+        <v>0.0007858308661596869</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004413277499858736</v>
+        <v>0.01504585306954335</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.47052274004391</v>
+        <v>4.405397071446964</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.4611416100562193, 7.479903870031602]</t>
+          <t>[1.56944698273937, 7.241347160154557]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003713199346918161</v>
+        <v>0.002426477091322043</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003713199346918161</v>
+        <v>0.004852954182644087</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049263, -0.37736848691769254]</t>
+          <t>[-2.088105627611233, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.002880827789364382</v>
+        <v>0.0005779621572161719</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002880827789364382</v>
+        <v>0.0005779621572161719</v>
       </c>
       <c r="S2" t="n">
-        <v>13.68725948248285</v>
+        <v>11.96081807410287</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.994772481895358, 15.379746483070344]</t>
+          <t>[10.355901778224897, 13.565734369980852]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.526786786786896</v>
+        <v>5.504784784784913</v>
       </c>
       <c r="X2" t="n">
-        <v>1.560960960960998</v>
+        <v>2.388868868868926</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.492612612612795</v>
+        <v>8.620700700700901</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002286941940167209</v>
+        <v>0.0027279809534273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002572995977249508</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.04174847316225927</v>
-      </c>
+        <v>0.01504585306954335</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.419939239656232</v>
+        <v>4.481412621945662</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1098310164758125, 8.730047462836652]</t>
+          <t>[1.3104799623022458, 7.652345281589078]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001416241640530336</v>
+        <v>0.005766675753083206</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002832483281060671</v>
+        <v>0.005766675753083206</v>
       </c>
       <c r="O3" t="n">
-        <v>1.943447707626118</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.2893423303021159, 2.5975530849501194]</t>
+          <t>[0.7987632973091161, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.359924040045257e-08</v>
+        <v>0.0002783323207840027</v>
       </c>
       <c r="R3" t="n">
-        <v>2.719848080090514e-08</v>
+        <v>0.0005566646415680054</v>
       </c>
       <c r="S3" t="n">
-        <v>13.52266845877242</v>
+        <v>12.20081878725651</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.708976403655761, 15.336360513889087]</t>
+          <t>[10.411066259676662, 13.990571314836355]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.50750750750771</v>
+        <v>17.34696696696718</v>
       </c>
       <c r="X3" t="n">
-        <v>14.01941941941959</v>
+        <v>13.85845845845863</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.99559559559584</v>
+        <v>20.83547547547573</v>
       </c>
     </row>
   </sheetData>
